--- a/biology/Botanique/Phellodendron/Phellodendron.xlsx
+++ b/biology/Botanique/Phellodendron/Phellodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phellodendron appelé aussi « arbre au liège de l'Amour » est une espèce d'arbre de la famille des Rutacées.
 Originaire du Japon, Corée et de la Chine, il a été introduit en Europe en 1856 pour son liège, mais il ne s'est pas révélé exploitable pour cet usage.
@@ -512,7 +524,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phellodendron est construit à partir du grec φελλός (phellós) qui veut dire « liège » et δένδρον (déndron) qui veut dire « arbre ».
 Son surnom (arbre au liège de l'Amour) vient du fleuve Amour dans le nord de la Chine.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 10 à 15 mètres de haut avec une écorce gris pâle, liégeuse et épaisse avec des feuilles caduques opposées sur des rameaux.
 Ses feuilles ont des folioles terminées en points acérées ; en froissant ces feuilles, on peut éventuellement sentir une odeur d'essence parfumée.
@@ -579,7 +595,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">répartition des deux sexes:
 type de pollinisation: abeille
@@ -617,7 +635,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon ITIS:
 Phellodendron amurense Rupr.
